--- a/tests/data/Tang_2021_NH3_JSR_phi05.xlsx
+++ b/tests/data/Tang_2021_NH3_JSR_phi05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0767405-1B19-FB48-895A-00E5CC87B399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C64CF3E-E1FB-0946-98A5-2AC8D14E3A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18660" yWindow="1300" windowWidth="16580" windowHeight="16600" firstSheet="5" activeTab="12" xr2:uid="{78241C94-D908-5046-A03C-F98961F89C3E}"/>
+    <workbookView xWindow="21900" yWindow="3080" windowWidth="13420" windowHeight="15020" xr2:uid="{78241C94-D908-5046-A03C-F98961F89C3E}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="63">
   <si>
     <t>num_exps</t>
   </si>
@@ -211,6 +211,30 @@
   </si>
   <si>
     <t>1 bar, phi 0.5</t>
+  </si>
+  <si>
+    <t>plot_format</t>
+  </si>
+  <si>
+    <t>rows_cols</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>exp_color</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>800,1200</t>
+  </si>
+  <si>
+    <t>xlim</t>
+  </si>
+  <si>
+    <t>yunit</t>
   </si>
 </sst>
 </file>
@@ -265,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -292,6 +316,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37EF7FA-3036-4343-BAB0-E3F2C1B3E0AA}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1220,6 +1247,50 @@
       </c>
       <c r="F25">
         <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2337,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8E4B61-5E1A-044C-856B-1EA48B9D5FD5}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tests/data/Tang_2021_NH3_JSR_phi05.xlsx
+++ b/tests/data/Tang_2021_NH3_JSR_phi05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C64CF3E-E1FB-0946-98A5-2AC8D14E3A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F1642D-7568-AD4A-87AC-8BB2F93DB3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21900" yWindow="3080" windowWidth="13420" windowHeight="15020" xr2:uid="{78241C94-D908-5046-A03C-F98961F89C3E}"/>
+    <workbookView xWindow="14740" yWindow="1900" windowWidth="13420" windowHeight="15020" xr2:uid="{78241C94-D908-5046-A03C-F98961F89C3E}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -219,9 +219,6 @@
     <t>rows_cols</t>
   </si>
   <si>
-    <t>4,2</t>
-  </si>
-  <si>
     <t>exp_color</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>yunit</t>
+  </si>
+  <si>
+    <t>3,2</t>
   </si>
 </sst>
 </file>
@@ -637,7 +637,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1254,10 +1254,10 @@
         <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -1268,7 +1268,7 @@
         <v>56</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -1276,10 +1276,10 @@
         <v>55</v>
       </c>
       <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -1287,7 +1287,7 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>53</v>
